--- a/20201009_Deliverables_Assignment1_EA_00/20200930_Assesment1d_LinearProgramming_DesignOp_EA.xlsx
+++ b/20201009_Deliverables_Assignment1_EA_00/20200930_Assesment1d_LinearProgramming_DesignOp_EA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ege\Documents\GitHub\Design-Optimisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ege\Documents\GitHub\Design-Optimisation\20201009_Deliverables_Assignment1_EA_00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D66F8D-CEE8-4DF7-AF2E-30DF76882446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BF8B96-2422-4F1C-AC0C-0A8AF2FD64F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{8027FE10-1248-4DE6-B680-62825772498E}"/>
   </bookViews>
@@ -519,16 +519,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -558,7 +558,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9715500" y="4572000"/>
+          <a:off x="18916650" y="2524125"/>
           <a:ext cx="3629025" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -580,16 +580,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>24848</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>405848</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>386798</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>320123</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -619,8 +619,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9740348" y="5524500"/>
-          <a:ext cx="2358059" cy="962025"/>
+          <a:off x="20589323" y="3486150"/>
+          <a:ext cx="2352675" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AE796E-3B81-450D-9202-E68979C155B3}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
